--- a/output/variables.xlsx
+++ b/output/variables.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,12 +392,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M_idealbaby_no</t>
+          <t>HHM_idealmarry_ageF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>How many children would you like to have? (including the ones she might already</t>
+          <t>HH: suitable age for marriage for female</t>
         </is>
       </c>
       <c r="C3">
@@ -407,147 +407,147 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Qhsworked_year_empl</t>
+          <t>QC_clubparticipateIMP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total hours worked in employment (last year)</t>
+          <t>Did you ever participate in any brac club meetings or activities? (IMPUTED VALUE</t>
         </is>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qhsworked_year_self</t>
+          <t>QE_Denrolled</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total hours worked in self-employment (last year)</t>
+          <t>=1 if enrolled in school, 0 otherwise</t>
         </is>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RC_clubparticipateIMP</t>
+          <t>Qhsworked_year_empl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Did you ever participate in any brac club meetings or activities? (IMPUTED VALUE</t>
+          <t>Total hours worked in employment (last year)</t>
         </is>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RE_Denrolled</t>
+          <t>Qhsworked_year_self</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>=1 if enrolled in school, 0 otherwise</t>
+          <t>Total hours worked in self-employment (last year)</t>
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RRhiv_skillsALT</t>
+          <t>RC_clubparticipateIMP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alternative definition of the HIV knowledge measure (taking the sixth statement </t>
+          <t>Did you ever participate in any brac club meetings or activities? (IMPUTED VALUE</t>
         </is>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rage</t>
+          <t>RE_Denrolled</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Age (years) on follow-up survey date</t>
+          <t>=1 if enrolled in school, 0 otherwise</t>
         </is>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rany_iga</t>
+          <t>RRhiv_skillsALT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>=1 if respondent does any kind of income-generating activity</t>
+          <t xml:space="preserve">Alternative definition of the HIV knowledge measure (taking the sixth statement </t>
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rempl</t>
+          <t>Rage</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>=1 if employed</t>
+          <t>Age (years) on follow-up survey date</t>
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rempowerment</t>
+          <t>Rany_iga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Empowerment index [0,100]</t>
+          <t>=1 if respondent does any kind of income-generating activity</t>
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rhiv_skillsALT</t>
+          <t>Rempl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alternative definition of the HIV knowledge measure (taking the sixth statement </t>
+          <t>=1 if employed</t>
         </is>
       </c>
       <c r="C13">
@@ -557,12 +557,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rhsworked_year_empl</t>
+          <t>Rempowerment</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total hours worked in employment (last year)</t>
+          <t>Empowerment index [0,100]</t>
         </is>
       </c>
       <c r="C14">
@@ -572,12 +572,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rhsworked_year_self</t>
+          <t>Rhiv_skillsALT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Total hours worked in self-employment (last year)</t>
+          <t xml:space="preserve">Alternative definition of the HIV knowledge measure (taking the sixth statement </t>
         </is>
       </c>
       <c r="C15">
@@ -587,27 +587,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rselfempl</t>
+          <t>Rhsworked_year_empl</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>=1 if self-employed</t>
+          <t>Total hours worked in employment (last year)</t>
         </is>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>any_iga</t>
+          <t>Rhsworked_year_self</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>=1 if respondent does any kind of income-generating activity</t>
+          <t>Total hours worked in self-employment (last year)</t>
         </is>
       </c>
       <c r="C17">
@@ -617,27 +617,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>Rpartner</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>=1 if obs in baseline</t>
+          <t>=1 if has a partner</t>
         </is>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>branch_name</t>
+          <t>Rselfempl</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Branch Name</t>
+          <t>=1 if self-employed</t>
         </is>
       </c>
       <c r="C19">
@@ -647,12 +647,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>branchno</t>
+          <t>any_iga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Branch number (10 unique values)</t>
+          <t>=1 if respondent does any kind of income-generating activity</t>
         </is>
       </c>
       <c r="C20">
@@ -662,12 +662,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>empl</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>=1 if employed</t>
+          <t>=1 if obs in baseline</t>
         </is>
       </c>
       <c r="C21">
@@ -677,12 +677,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>empowerment</t>
+          <t>branch_name</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Empowerment index [0,100]</t>
+          <t>Branch Name</t>
         </is>
       </c>
       <c r="C22">
@@ -692,12 +692,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>endline</t>
+          <t>branchno</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>=1 if obs in endline</t>
+          <t>Branch number (10 unique values)</t>
         </is>
       </c>
       <c r="C23">
@@ -707,12 +707,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>follow_up</t>
+          <t>empl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>=1 if obs in follow-up</t>
+          <t>=1 if employed</t>
         </is>
       </c>
       <c r="C24">
@@ -722,12 +722,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hsworked_year_empl</t>
+          <t>empowerment</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total hours worked in employment (last year)</t>
+          <t>Empowerment index [0,100]</t>
         </is>
       </c>
       <c r="C25">
@@ -737,12 +737,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hsworked_year_self</t>
+          <t>endline</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total hours worked in self-employment (last year)</t>
+          <t>=1 if obs in endline</t>
         </is>
       </c>
       <c r="C26">
@@ -752,12 +752,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>follow_up</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Adolescent id number (5966 unique values)</t>
+          <t>=1 if obs in follow-up</t>
         </is>
       </c>
       <c r="C27">
@@ -767,72 +767,72 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>incind_empl</t>
+          <t>hsworked_year_empl</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wage employment income (trimmed) (last year)</t>
+          <t>Total hours worked in employment (last year)</t>
         </is>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lifeskillMOREfewIMP</t>
+          <t>hsworked_year_self</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ever participated in life skill component? (IMPUTED VALUES)</t>
+          <t>Total hours worked in self-employment (last year)</t>
         </is>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>livelihoodMOREfewIMP</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ever participated in livelihood component? (IMPUTED VALUES)</t>
+          <t>Adolescent id number (5966 unique values)</t>
         </is>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>panel</t>
+          <t>incind_empl</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>=1 if obs in panel</t>
+          <t>Wage employment income (trimmed) (last year)</t>
         </is>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pid</t>
+          <t>incind_selfempl</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parent ID number</t>
+          <t>Self-employment income (trimmed) (last year)</t>
         </is>
       </c>
       <c r="C32">
@@ -842,12 +842,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>selfempl</t>
+          <t>lifeskillMOREfewIMP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>=1 if self-employed</t>
+          <t>Ever participated in life skill component? (IMPUTED VALUES)</t>
         </is>
       </c>
       <c r="C33">
@@ -857,12 +857,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>livelihoodMOREfewIMP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Treatment Status</t>
+          <t>Ever participated in livelihood component? (IMPUTED VALUES)</t>
         </is>
       </c>
       <c r="C34">
@@ -872,27 +872,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>villid</t>
+          <t>pid</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Unique village ID</t>
+          <t>Parent ID number</t>
         </is>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>selfempl</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>=1 if self-employed</t>
         </is>
       </c>
       <c r="C36">
@@ -902,42 +902,42 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>z_REntrep_total</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Treatment Status</t>
         </is>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>z_Rany_iga</t>
+          <t>villid</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Unique village ID</t>
         </is>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>z_Rselfempl</t>
+          <t>worry_job</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>=1 if never worries that she will not get a good job</t>
         </is>
       </c>
       <c r="C39">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>z_Rempl</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>z_RExpenditure_totDF</t>
+          <t>z_REntrep_total</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RRhiv_s</t>
+          <t>z_Rany_iga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>z_RM_chi</t>
+          <t>z_Rselfempl</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>z_Rpart</t>
+          <t>z_Rempl</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>z_RR_sexu</t>
+          <t>z_RExpenditure_totDF</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>z_Rsex_p</t>
+          <t>Rpart</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>z_RRhiv_s</t>
+          <t>RRhiv_s</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>z_Ralways_c</t>
+          <t>z_RM_chi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>z_Rother_c</t>
+          <t>z_Rpart</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>z_Rempowerment</t>
+          <t>z_RR_sexu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>z_RM_i_ageF</t>
+          <t>z_Rsex_p</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1121,13 +1121,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>z_RM_i_ageM</t>
+          <t>z_RRhiv_s</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1136,13 +1136,13 @@
         </is>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>z_RM_baby_no</t>
+          <t>z_Ralways_c</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>z_RM_baby_ageF</t>
+          <t>z_Rother_c</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>z_RM_daught</t>
+          <t>z_Rempowerment</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>z_RM_son</t>
+          <t>z_RM_i_ageF</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1196,13 +1196,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rcontrol_body</t>
+          <t>z_RM_i_ageM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Raspiration</t>
+          <t>z_RM_baby_no</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>z_RM_baby_ageF</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>z_Entrep_total</t>
+          <t>z_RM_daught</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>z_any_iga</t>
+          <t>z_RM_son</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>z_selfempl</t>
+          <t>Rcontrol_body</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>z_empl</t>
+          <t>Raspiration</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>z_Expenditure_totDF</t>
+          <t>Riga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>zALL_Entrep_total</t>
+          <t>z_Entrep_total</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>zALL_any_iga</t>
+          <t>z_any_iga</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>zALL_selfempl</t>
+          <t>z_selfempl</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1367,7 +1367,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>zALL_empl</t>
+          <t>z_empl</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1382,7 +1382,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>zALL_Expenditure_totDF</t>
+          <t>z_Expenditure_totDF</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rhiv_s</t>
+          <t>zALL_Entrep_total</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>z_M_chi</t>
+          <t>zALL_any_iga</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>z_part</t>
+          <t>zALL_selfempl</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>z_R_sexu</t>
+          <t>zALL_empl</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>z_sex_p</t>
+          <t>zALL_Expenditure_totDF</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>z_Rhiv_s</t>
+          <t>Rhiv_s</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>z_always_c</t>
+          <t>z_M_chi</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1496,13 +1496,13 @@
         </is>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>z_other_c</t>
+          <t>z_part</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>zALL_M_chi</t>
+          <t>z_R_sexu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1532,7 +1532,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>zALL_part</t>
+          <t>z_sex_p</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1547,7 +1547,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>zALL_R_sexu</t>
+          <t>z_Rhiv_s</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1562,7 +1562,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>zALL_sex_p</t>
+          <t>z_always_c</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>zALL_Rhiv_s</t>
+          <t>z_other_c</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1592,7 +1592,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>zALL_always_c</t>
+          <t>zALL_M_chi</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1607,7 +1607,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>zALL_other_c</t>
+          <t>zALL_part</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1622,7 +1622,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>M_baby_no</t>
+          <t>zALL_R_sexu</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>z_empowerment</t>
+          <t>zALL_sex_p</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>z_M_i_ageF</t>
+          <t>zALL_Rhiv_s</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1661,13 +1661,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>z_M_i_ageM</t>
+          <t>zALL_always_c</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1676,13 +1676,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>z_M_baby_no</t>
+          <t>zALL_other_c</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>z_M_baby_ageF</t>
+          <t>z_empowerment</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>z_M_daught</t>
+          <t>z_M_i_ageF</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>z_M_son</t>
+          <t>z_M_i_ageM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>zALL_empowerment</t>
+          <t>z_M_baby_no</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1757,7 +1757,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zALL_M_i_ageF</t>
+          <t>z_M_baby_ageF</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>zALL_M_i_ageM</t>
+          <t>z_M_daught</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1787,7 +1787,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>zALL_M_baby_no</t>
+          <t>z_M_son</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1802,7 +1802,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>zALL_M_baby_ageF</t>
+          <t>zALL_empowerment</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1817,7 +1817,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>zALL_M_daught</t>
+          <t>zALL_M_i_ageF</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1832,7 +1832,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zALL_M_son</t>
+          <t>zALL_M_i_ageM</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1847,7 +1847,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>control_body</t>
+          <t>zALL_M_baby_no</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1856,13 +1856,13 @@
         </is>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>aspiration</t>
+          <t>zALL_M_baby_ageF</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>iga</t>
+          <t>zALL_M_daught</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>control_bodyALL</t>
+          <t>zALL_M_son</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1907,7 +1907,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>aspirationALL</t>
+          <t>control_body</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1922,7 +1922,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>igaALL</t>
+          <t>aspiration</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1937,12 +1937,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>_Bbranch_na_2</t>
+          <t>iga</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>branch_name==BUSIA</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="C106">
@@ -1952,12 +1952,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>_Bbranch_na_3</t>
+          <t>control_bodyALL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>branch_name==BUWENGE</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="C107">
@@ -1967,12 +1967,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>_Bbranch_na_4</t>
+          <t>aspirationALL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>branch_name==IGANGA</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="C108">
@@ -1982,12 +1982,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>_Bbranch_na_5</t>
+          <t>igaALL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>branch_name==KALERWE</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="C109">
@@ -1997,12 +1997,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>_Bbranch_na_6</t>
+          <t>_Bbranch_na_2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>branch_name==KIREKA</t>
+          <t>branch_name==BUSIA</t>
         </is>
       </c>
       <c r="C110">
@@ -2012,12 +2012,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>_Bbranch_na_7</t>
+          <t>_Bbranch_na_3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>branch_name==KYENGERA</t>
+          <t>branch_name==BUWENGE</t>
         </is>
       </c>
       <c r="C111">
@@ -2027,12 +2027,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>_Bbranch_na_8</t>
+          <t>_Bbranch_na_4</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>branch_name==MUKONO</t>
+          <t>branch_name==IGANGA</t>
         </is>
       </c>
       <c r="C112">
@@ -2042,12 +2042,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>_Bbranch_na_9</t>
+          <t>_Bbranch_na_5</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>branch_name==NANSANA</t>
+          <t>branch_name==KALERWE</t>
         </is>
       </c>
       <c r="C113">
@@ -2057,15 +2057,75 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>_Bbranch_na_6</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>branch_name==KIREKA</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>_Bbranch_na_7</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>branch_name==KYENGERA</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>_Bbranch_na_8</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>branch_name==MUKONO</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>_Bbranch_na_9</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>branch_name==NANSANA</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>_Bbranch_na_10</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>branch_name==NJERU</t>
         </is>
       </c>
-      <c r="C114">
+      <c r="C118">
         <v>1</v>
       </c>
     </row>
